--- a/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H2">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>404.9515912504959</v>
+        <v>769.824334056783</v>
       </c>
       <c r="R2">
-        <v>404.9515912504959</v>
+        <v>6928.419006511047</v>
       </c>
       <c r="S2">
-        <v>0.3103533799217259</v>
+        <v>0.382430810621703</v>
       </c>
       <c r="T2">
-        <v>0.3103533799217259</v>
+        <v>0.3824308106217031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H3">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>352.3032336621721</v>
+        <v>625.5504086273679</v>
       </c>
       <c r="R3">
-        <v>352.3032336621721</v>
+        <v>5629.953677646312</v>
       </c>
       <c r="S3">
-        <v>0.2700038762331318</v>
+        <v>0.3107588826082187</v>
       </c>
       <c r="T3">
-        <v>0.2700038762331318</v>
+        <v>0.3107588826082187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H4">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I4">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J4">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>51.14033953533924</v>
+        <v>93.22550736085955</v>
       </c>
       <c r="R4">
-        <v>51.14033953533924</v>
+        <v>839.0295662477359</v>
       </c>
       <c r="S4">
-        <v>0.03919376431174293</v>
+        <v>0.0463122621270677</v>
       </c>
       <c r="T4">
-        <v>0.03919376431174293</v>
+        <v>0.0463122621270677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H5">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>8.022052116439374</v>
+        <v>10.37790390547155</v>
       </c>
       <c r="R5">
-        <v>8.022052116439374</v>
+        <v>93.40113514924398</v>
       </c>
       <c r="S5">
-        <v>0.006148070638658456</v>
+        <v>0.005155501102711154</v>
       </c>
       <c r="T5">
-        <v>0.006148070638658456</v>
+        <v>0.005155501102711155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H6">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>6.979093210871788</v>
+        <v>8.432965472204</v>
       </c>
       <c r="R6">
-        <v>6.979093210871788</v>
+        <v>75.896689249836</v>
       </c>
       <c r="S6">
-        <v>0.005348750847216673</v>
+        <v>0.004189300959719894</v>
       </c>
       <c r="T6">
-        <v>0.005348750847216673</v>
+        <v>0.004189300959719894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H7">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J7">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>1.013085212822692</v>
+        <v>1.256761203989778</v>
       </c>
       <c r="R7">
-        <v>1.013085212822692</v>
+        <v>11.310850835908</v>
       </c>
       <c r="S7">
-        <v>0.0007764247054254744</v>
+        <v>0.0006243297135944615</v>
       </c>
       <c r="T7">
-        <v>0.0007764247054254744</v>
+        <v>0.0006243297135944615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H8">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J8">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>240.6474110306766</v>
+        <v>260.8015463822446</v>
       </c>
       <c r="R8">
-        <v>240.6474110306766</v>
+        <v>2347.213917440201</v>
       </c>
       <c r="S8">
-        <v>0.1844312727655983</v>
+        <v>0.1295601377898229</v>
       </c>
       <c r="T8">
-        <v>0.1844312727655983</v>
+        <v>0.129560137789823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H9">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J9">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>209.3604838463106</v>
+        <v>211.924339998882</v>
       </c>
       <c r="R9">
-        <v>209.3604838463106</v>
+        <v>1907.319059989938</v>
       </c>
       <c r="S9">
-        <v>0.160453089178152</v>
+        <v>0.1052790793311865</v>
       </c>
       <c r="T9">
-        <v>0.160453089178152</v>
+        <v>0.1052790793311865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H10">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>30.39076910503206</v>
+        <v>31.58299290677933</v>
       </c>
       <c r="R10">
-        <v>30.39076910503206</v>
+        <v>284.246936161014</v>
       </c>
       <c r="S10">
-        <v>0.02329137139834837</v>
+        <v>0.01568969574597549</v>
       </c>
       <c r="T10">
-        <v>0.02329137139834837</v>
+        <v>0.01568969574597549</v>
       </c>
     </row>
   </sheetData>
